--- a/Plan/Table/Test_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Test_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FD9641-99C2-49CA-AACA-2D193FDEA51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B90F4AD-D878-4A15-B015-88ACC4652B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FDC31A5E-D75F-4C9B-8503-D616F6E1F634}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FA6D057D-57C9-45B8-8E31-CD7FEE9A6666}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B9167-E3A3-4D14-B441-ECFB3DFC2360}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53AF87D-EB2F-4428-B4A3-4D8A9609E454}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>

--- a/Plan/Table/Test_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Test_Data/01.Base_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B90F4AD-D878-4A15-B015-88ACC4652B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B2A93E-F9B2-4AA2-A42A-23C4AA8BE734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FA6D057D-57C9-45B8-8E31-CD7FEE9A6666}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7BBF742-7D7F-451A-84D1-0B0C0EFCCDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53AF87D-EB2F-4428-B4A3-4D8A9609E454}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD8ACB1-7961-40D4-A818-AF1EAEF8716F}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -547,6 +546,204 @@
         <v>99</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Table/Test_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Test_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B2A93E-F9B2-4AA2-A42A-23C4AA8BE734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1594EFFB-308E-46E2-893C-2B0C7AF7D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7BBF742-7D7F-451A-84D1-0B0C0EFCCDD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F83E8D49-0575-4F69-9CB8-6A016CAEC3E0}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD8ACB1-7961-40D4-A818-AF1EAEF8716F}">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E079DA-FEA2-4757-B1F5-7BEF0DC6186B}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -744,6 +744,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Table/Test_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Test_Data/01.Base_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1594EFFB-308E-46E2-893C-2B0C7AF7D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE8786C-0B14-4963-BF62-4A57BA71B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F83E8D49-0575-4F69-9CB8-6A016CAEC3E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AD4968C6-B4C6-4EE2-BA4C-B314277A2DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E079DA-FEA2-4757-B1F5-7BEF0DC6186B}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11A97DF-DDDB-4482-A21B-0E89EEF0CFAA}">
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -452,10 +452,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,6 +764,72 @@
       </c>
       <c r="C30">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Test_Data/01.Base_Table.xlsx
+++ b/Plan/Table/Test_Data/01.Base_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE8786C-0B14-4963-BF62-4A57BA71B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD65ECE1-3986-45F5-B361-0FE8BB7DAD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AD4968C6-B4C6-4EE2-BA4C-B314277A2DD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6FAADEBC-E7A9-42EA-938F-63BF8295E575}"/>
   </bookViews>
   <sheets>
     <sheet name="01.Base_Table" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11A97DF-DDDB-4482-A21B-0E89EEF0CFAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17F8DF8-00B5-4BB6-8DE1-E88C1E4EBCF1}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
